--- a/data/trans_camb/P16B08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; 29,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 6,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 4,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 12,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 9,03</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 62,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; 43,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 7,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,16; 4,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 14,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; 10,05</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 24,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 4,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,34; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 7,72</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 38,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 33,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 3,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 8,66</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,72; 12,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,81; -3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,25; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,3; 7,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,96; 5,98</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,45%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 41,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,48; 14,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,81; -3,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,25; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 8,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; 6,19</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 20,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 12,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 1,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 1,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 7,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 4,48</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 26,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 15,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 1,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 1,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 7,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 4,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,6</t>
+          <t>0,0; 36,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 29,23</t>
+          <t>-10,08; 35,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 6,83</t>
+          <t>-3,41; 6,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 4,02</t>
+          <t>-8,12; 4,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 12,16</t>
+          <t>-1,16; 12,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 9,03</t>
+          <t>-5,75; 9,68</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,89</t>
+          <t>0,0; 57,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 43,73</t>
+          <t>-10,15; 54,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 7,0</t>
+          <t>-3,42; 6,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 4,19</t>
+          <t>-8,56; 4,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 14,12</t>
+          <t>-1,16; 14,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 10,05</t>
+          <t>-5,94; 10,89</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,92</t>
+          <t>0,0; 27,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 24,3</t>
+          <t>-3,4; 22,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,41</t>
+          <t>-1,93; 4,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 3,04</t>
+          <t>-5,42; 2,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,47</t>
+          <t>0,03; 10,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 7,72</t>
+          <t>-2,96; 8,89</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,65</t>
+          <t>0,0; 37,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 33,66</t>
+          <t>-3,43; 29,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,65</t>
+          <t>-1,94; 4,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,16</t>
+          <t>-5,46; 2,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,63</t>
+          <t>0,0; 12,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 8,66</t>
+          <t>-2,97; 9,82</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,28</t>
+          <t>0,0; 30,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 12,87</t>
+          <t>-28,23; 10,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,81; -3,07</t>
+          <t>-29,79; -3,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 0,0</t>
+          <t>-18,35; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 7,32</t>
+          <t>-12,02; 6,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 5,98</t>
+          <t>-14,98; 5,09</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,38</t>
+          <t>0,0; 43,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 14,99</t>
+          <t>-30,67; 12,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,81; -3,07</t>
+          <t>-29,79; -3,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 0,0</t>
+          <t>-18,35; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 8,08</t>
+          <t>-12,52; 7,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 6,19</t>
+          <t>-15,52; 5,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 20,76</t>
+          <t>2,77; 19,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,84</t>
+          <t>-5,76; 13,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,63</t>
+          <t>-5,09; 1,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 1,36</t>
+          <t>-5,54; 1,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,0</t>
+          <t>-0,79; 7,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,48</t>
+          <t>-3,95; 4,15</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,18</t>
+          <t>2,85; 24,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,46</t>
+          <t>-5,87; 16,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,67</t>
+          <t>-5,11; 1,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,4</t>
+          <t>-5,57; 1,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,63</t>
+          <t>-0,8; 7,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 4,84</t>
+          <t>-4,02; 4,42</t>
         </is>
       </c>
     </row>
